--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91800\Downloads\Gantt_Plotly_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEC0C7-895E-445D-8438-353F4413627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E364E-EADB-42B7-8D97-170C1F150654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5309F55-BAAE-4A14-8B01-E7087656102B}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91800\Downloads\Gantt_Plotly_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E364E-EADB-42B7-8D97-170C1F150654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2F1DD8-86C7-44BB-9942-372728B8922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5309F55-BAAE-4A14-8B01-E7087656102B}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
